--- a/data/trans_camb/P36B13_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Clase-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.006739226675949</v>
+        <v>-4.202722576591341</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.921412671537507</v>
+        <v>-5.03763554437812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.540247540452723</v>
+        <v>-3.51311602155157</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.896495075935591</v>
+        <v>2.422848932483792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2155397817181737</v>
+        <v>0.2420383319054955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.385961256801527</v>
+        <v>0.5655400476854249</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5297637001686375</v>
+        <v>-0.5360916278043437</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7360557700497957</v>
+        <v>-0.7467728021031106</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5405753487242213</v>
+        <v>-0.5385848959345713</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4470528306576272</v>
+        <v>0.5824605676461256</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1572478669928017</v>
+        <v>0.1542258188097628</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.09275361944176944</v>
+        <v>0.1517802321490447</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>-3.673411698195781</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.421668725426793</v>
+        <v>-3.421668725426794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.524774492994749</v>
+        <v>-3.52477449299475</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.451975664360079</v>
+        <v>-7.603979244175796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.430067438935763</v>
+        <v>-6.786180966188985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.022049346981208</v>
+        <v>-6.271981337864249</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6454393718356899</v>
+        <v>0.2972538896113519</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.36075275914127</v>
+        <v>0.4777544052584442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.9618642889017521</v>
+        <v>-0.8364432036936771</v>
       </c>
     </row>
     <row r="13">
@@ -724,10 +724,10 @@
         <v>-0.396864942849337</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4145445542247402</v>
+        <v>-0.4145445542247403</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4024663484913809</v>
+        <v>-0.402466348491381</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.670317662161291</v>
+        <v>-0.6594747757096346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6965135258606421</v>
+        <v>-0.6697381966169755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6082955890181032</v>
+        <v>-0.6104601641869162</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1347478974767874</v>
+        <v>0.08635060975852642</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06975641864482843</v>
+        <v>0.1086540206281334</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1214262456438562</v>
+        <v>-0.105505977671862</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.006948055369704</v>
+        <v>-7.092863304902436</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.3829703577702</v>
+        <v>-12.27679227831749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.609563151068438</v>
+        <v>-7.720385381826982</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6051826503150572</v>
+        <v>0.6261808976268702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.547474867965871</v>
+        <v>-2.30305225708036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.8689238578864078</v>
+        <v>-1.388444167035067</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5768811543684392</v>
+        <v>-0.5775517005812533</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.90845366257139</v>
+        <v>-0.9080316298830041</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6508674108268279</v>
+        <v>-0.6328968559202316</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09230551732659383</v>
+        <v>0.07022282696011826</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3320175628530455</v>
+        <v>-0.3348938902126343</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09581103038780669</v>
+        <v>-0.1497340299963463</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>-6.799225925901295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.02075771504364</v>
+        <v>-5.020757715043639</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.495852441976354</v>
+        <v>-6.425707534994225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.454111516138282</v>
+        <v>-9.443745976818258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.110598859550143</v>
+        <v>-6.984995180643199</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.7869848664111689</v>
+        <v>-0.6790827571826697</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.211136190998703</v>
+        <v>-4.364849151335455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.079594199673467</v>
+        <v>-3.073529876196399</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>-0.6042162726083408</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4205253565217449</v>
+        <v>-0.4205253565217448</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4701582407492755</v>
+        <v>-0.4657259192357923</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7342062236048893</v>
+        <v>-0.7227347450087401</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5442423371408702</v>
+        <v>-0.5359624867974402</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.04915236832393168</v>
+        <v>-0.05348688030794359</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.422461080359211</v>
+        <v>-0.4290958097375848</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2735082570696535</v>
+        <v>-0.2734291059527659</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>-4.156039035950662</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-6.13461591129776</v>
+        <v>-6.134615911297761</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.62611174871627</v>
+        <v>-11.75366762527541</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.485824207007562</v>
+        <v>-6.58533336857168</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.245220628056236</v>
+        <v>-8.328837987993975</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.118031622876986</v>
+        <v>-4.110689672795685</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.211077142658339</v>
+        <v>-2.087929657640934</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.11073078177137</v>
+        <v>-4.071787362029535</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>-0.5663003941253121</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5653864182891543</v>
+        <v>-0.5653864182891545</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6908401779286139</v>
+        <v>-0.6819492174392972</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7239502151477857</v>
+        <v>-0.7305112373216699</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.674426349260506</v>
+        <v>-0.6821364477596636</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3237789979185289</v>
+        <v>-0.3104893797255319</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3380678231231878</v>
+        <v>-0.3357228060226004</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4213156341694551</v>
+        <v>-0.4266393067046663</v>
       </c>
     </row>
     <row r="34">
@@ -1100,7 +1100,7 @@
         <v>-1.902815299714254</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-3.904707759350302</v>
+        <v>-3.904707759350304</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-18.70304877168172</v>
+        <v>-19.5282891322686</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.119302417183634</v>
+        <v>-3.977135522070792</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.249332087192264</v>
+        <v>-6.383456609575703</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-2.902721771837825</v>
+        <v>-3.389599970722653</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.4309415371684487</v>
+        <v>0.4443259700483738</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.130206127777059</v>
+        <v>-1.329069361859152</v>
       </c>
     </row>
     <row r="37">
@@ -1151,7 +1151,7 @@
         <v>-0.2968076829463481</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3906727385175</v>
+        <v>-0.3906727385175001</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.735710205479618</v>
+        <v>-0.7372721151978777</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5571061812966085</v>
+        <v>-0.5407087327242083</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5761612353411584</v>
+        <v>-0.5866322803409292</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1381433936283017</v>
+        <v>-0.1117237219045585</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09602511063132295</v>
+        <v>0.09156231273447189</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1258189481451065</v>
+        <v>-0.1314121525715244</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>-4.034854444548832</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-4.503973059409792</v>
+        <v>-4.503973059409791</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.625585911896395</v>
+        <v>-6.510171659416088</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.136342766265204</v>
+        <v>-5.154762506251615</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.471332081989167</v>
+        <v>-5.41517719454689</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-3.472803658533838</v>
+        <v>-3.375814373772876</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.991246363313456</v>
+        <v>-2.889932390804154</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.599234425938052</v>
+        <v>-3.436386396462955</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         <v>-0.4004506861137816</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.5123022362455334</v>
+        <v>-0.5123022362455333</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4460020415136095</v>
+        <v>-0.4460020415136094</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.505660425495299</v>
+        <v>-0.4995172768111205</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5977694564513605</v>
+        <v>-0.6051017209584229</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5166470523861247</v>
+        <v>-0.513816605323416</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3016420626901366</v>
+        <v>-0.2861054543255514</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.4047087164481503</v>
+        <v>-0.4030179214018105</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3676858326716066</v>
+        <v>-0.3630616541490629</v>
       </c>
     </row>
     <row r="46">
